--- a/biology/Médecine/Sources_d'Eugénie-les-Bains/Sources_d'Eugénie-les-Bains.xlsx
+++ b/biology/Médecine/Sources_d'Eugénie-les-Bains/Sources_d'Eugénie-les-Bains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sources_d%27Eug%C3%A9nie-les-Bains</t>
+          <t>Sources_d'Eugénie-les-Bains</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La source Impératrice et la source Christine Marie sont au centre de l’activité thermale de la station d’Eugénie-les-Bains, dans le département français des Landes. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sources_d%27Eug%C3%A9nie-les-Bains</t>
+          <t>Sources_d'Eugénie-les-Bains</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,50 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Leurs eaux sulfurées sodiques, sulfurées et sulfatées calciques sont issues de sources chaudes dont la température varie de 22 °C à 41 °C. Elles permettent de traiter des maladies métaboliques et de la nutrition (excès de poids), des rhumatismes, et des affections chroniques des voies digestives et des voies urinaires.
-Historique
-La renommée des propriétés thérapeutiques des eaux thermales d’Eugénie-les-Bains est très ancienne.
-Avant la création de la commune d’Eugénie-les-Bains en 1861, les sources sont désignées par l’appellation gasconne de « las Aygos de Saint Loubouer », du nom du village où elles se situent alors. Leurs vertus curatives attirent à elles des patients locaux, qui y soignent leurs maux de manière empirique, avant que ne soient menées les premières études thérapeutiques au cours du XVIIe siècle[1].
-En 1582, Michel de Montaigne cite de manière non exhaustive dans son Journal de voyage les stations thermales landaises de Dax et Préchacq. Aussi est-il permis de penser qu’il a connu les eaux artésiennes des prairies de Saint-Loubouer. Ces eaux reçoivent une première consécration officielle sous le règne du roi Henri IV, qui en ordonne le captage, dans le cadre des missions confiées à la Surintendance des Eaux qu’il crée en 1605[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sources_d'Eugénie-les-Bains</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sources_d%27Eug%C3%A9nie-les-Bains</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La renommée des propriétés thérapeutiques des eaux thermales d’Eugénie-les-Bains est très ancienne.
+Avant la création de la commune d’Eugénie-les-Bains en 1861, les sources sont désignées par l’appellation gasconne de « las Aygos de Saint Loubouer », du nom du village où elles se situent alors. Leurs vertus curatives attirent à elles des patients locaux, qui y soignent leurs maux de manière empirique, avant que ne soient menées les premières études thérapeutiques au cours du XVIIe siècle.
+En 1582, Michel de Montaigne cite de manière non exhaustive dans son Journal de voyage les stations thermales landaises de Dax et Préchacq. Aussi est-il permis de penser qu’il a connu les eaux artésiennes des prairies de Saint-Loubouer. Ces eaux reçoivent une première consécration officielle sous le règne du roi Henri IV, qui en ordonne le captage, dans le cadre des missions confiées à la Surintendance des Eaux qu’il crée en 1605.
 Puis la vogue que les saisons connaissent sous le Second Empire favorise, autour des sources, la naissance d’une agglomération qui ne tarde pas à devenir le cœur d’une nouvelle commune, à laquelle l’Impératrice Eugénie de Montijo fit l’honneur de son gracieux parrainage.
 </t>
         </is>
